--- a/stock_historical_data/1mo/INDIGO.NS.xlsx
+++ b/stock_historical_data/1mo/INDIGO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,60 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4324</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4324</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4324</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4324</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4324</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>22</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/INDIGO.NS.xlsx
+++ b/stock_historical_data/1mo/INDIGO.NS.xlsx
@@ -5979,7 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
-      <c r="Q104" t="inlineStr"/>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/INDIGO.NS.xlsx
+++ b/stock_historical_data/1mo/INDIGO.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="B2" t="n">
-        <v>1112.949951171875</v>
+        <v>811.2902171451286</v>
       </c>
       <c r="C2" t="n">
-        <v>1245</v>
+        <v>1106.020413917583</v>
       </c>
       <c r="D2" t="n">
-        <v>982</v>
+        <v>804.8438936445066</v>
       </c>
       <c r="E2" t="n">
-        <v>1234.900024414062</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1170.67333984375</v>
-      </c>
+        <v>1051.321411132812</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>36178970</v>
+        <v>61688423</v>
       </c>
       <c r="H2" t="n">
         <v>2015</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>49</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>42370</v>
+        <v>42339</v>
       </c>
       <c r="B3" t="n">
-        <v>1244</v>
+        <v>1112.949951171875</v>
       </c>
       <c r="C3" t="n">
-        <v>1394.849975585938</v>
+        <v>1245</v>
       </c>
       <c r="D3" t="n">
-        <v>857.8499755859375</v>
+        <v>982</v>
       </c>
       <c r="E3" t="n">
-        <v>874.7000122070312</v>
+        <v>1234.900024414062</v>
       </c>
       <c r="F3" t="n">
-        <v>829.2072143554688</v>
+        <v>1170.67333984375</v>
       </c>
       <c r="G3" t="n">
-        <v>55002657</v>
+        <v>36178970</v>
       </c>
       <c r="H3" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>42401</v>
+        <v>42370</v>
       </c>
       <c r="B4" t="n">
-        <v>905</v>
+        <v>1244</v>
       </c>
       <c r="C4" t="n">
-        <v>920</v>
+        <v>1394.849975585938</v>
       </c>
       <c r="D4" t="n">
-        <v>698.3499755859375</v>
+        <v>857.8499755859375</v>
       </c>
       <c r="E4" t="n">
-        <v>812.25</v>
+        <v>874.7000122070312</v>
       </c>
       <c r="F4" t="n">
-        <v>770.005126953125</v>
+        <v>829.2072143554688</v>
       </c>
       <c r="G4" t="n">
-        <v>32870225</v>
+        <v>55002657</v>
       </c>
       <c r="H4" t="n">
         <v>2016</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>42430</v>
+        <v>42401</v>
       </c>
       <c r="B5" t="n">
-        <v>803.9000244140625</v>
+        <v>905</v>
       </c>
       <c r="C5" t="n">
-        <v>927.8499755859375</v>
+        <v>920</v>
       </c>
       <c r="D5" t="n">
-        <v>792</v>
+        <v>698.3499755859375</v>
       </c>
       <c r="E5" t="n">
-        <v>873.2000122070312</v>
+        <v>812.25</v>
       </c>
       <c r="F5" t="n">
-        <v>827.7852783203125</v>
+        <v>770.005126953125</v>
       </c>
       <c r="G5" t="n">
-        <v>19982846</v>
+        <v>32870225</v>
       </c>
       <c r="H5" t="n">
         <v>2016</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>42461</v>
+        <v>42430</v>
       </c>
       <c r="B6" t="n">
-        <v>873</v>
+        <v>803.9000244140625</v>
       </c>
       <c r="C6" t="n">
-        <v>1080</v>
+        <v>927.8499755859375</v>
       </c>
       <c r="D6" t="n">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="E6" t="n">
-        <v>1075.949951171875</v>
+        <v>873.2000122070312</v>
       </c>
       <c r="F6" t="n">
-        <v>1019.990112304688</v>
+        <v>827.7852783203125</v>
       </c>
       <c r="G6" t="n">
-        <v>18387717</v>
+        <v>19982846</v>
       </c>
       <c r="H6" t="n">
         <v>2016</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>42491</v>
+        <v>42461</v>
       </c>
       <c r="B7" t="n">
-        <v>1023.099975585938</v>
+        <v>873</v>
       </c>
       <c r="C7" t="n">
-        <v>1095</v>
+        <v>1080</v>
       </c>
       <c r="D7" t="n">
-        <v>956</v>
+        <v>862</v>
       </c>
       <c r="E7" t="n">
-        <v>1064.300048828125</v>
+        <v>1075.949951171875</v>
       </c>
       <c r="F7" t="n">
-        <v>1008.946166992188</v>
+        <v>1019.990112304688</v>
       </c>
       <c r="G7" t="n">
-        <v>10406426</v>
+        <v>18387717</v>
       </c>
       <c r="H7" t="n">
         <v>2016</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>42522</v>
+        <v>42491</v>
       </c>
       <c r="B8" t="n">
-        <v>1051.699951171875</v>
+        <v>1023.099975585938</v>
       </c>
       <c r="C8" t="n">
-        <v>1089.849975585938</v>
+        <v>1095</v>
       </c>
       <c r="D8" t="n">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.349975585938</v>
+        <v>1064.300048828125</v>
       </c>
       <c r="F8" t="n">
-        <v>962.5420532226562</v>
+        <v>1008.946166992188</v>
       </c>
       <c r="G8" t="n">
-        <v>8038001</v>
+        <v>10406426</v>
       </c>
       <c r="H8" t="n">
         <v>2016</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>42552</v>
+        <v>42522</v>
       </c>
       <c r="B9" t="n">
-        <v>1013</v>
+        <v>1051.699951171875</v>
       </c>
       <c r="C9" t="n">
-        <v>1054</v>
+        <v>1089.849975585938</v>
       </c>
       <c r="D9" t="n">
-        <v>856.5999755859375</v>
+        <v>961</v>
       </c>
       <c r="E9" t="n">
-        <v>987.7999877929688</v>
+        <v>1015.349975585938</v>
       </c>
       <c r="F9" t="n">
-        <v>936.4249267578125</v>
+        <v>962.5420532226562</v>
       </c>
       <c r="G9" t="n">
-        <v>8133103</v>
+        <v>8038001</v>
       </c>
       <c r="H9" t="n">
         <v>2016</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>42583</v>
+        <v>42552</v>
       </c>
       <c r="B10" t="n">
-        <v>993.5499877929688</v>
+        <v>1013</v>
       </c>
       <c r="C10" t="n">
-        <v>997.7000122070312</v>
+        <v>1054</v>
       </c>
       <c r="D10" t="n">
-        <v>790.0999755859375</v>
+        <v>856.5999755859375</v>
       </c>
       <c r="E10" t="n">
-        <v>882.5999755859375</v>
+        <v>987.7999877929688</v>
       </c>
       <c r="F10" t="n">
-        <v>836.6962890625</v>
+        <v>936.4249267578125</v>
       </c>
       <c r="G10" t="n">
-        <v>13591343</v>
+        <v>8133103</v>
       </c>
       <c r="H10" t="n">
         <v>2016</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="B11" t="n">
-        <v>893.4000244140625</v>
+        <v>993.5499877929688</v>
       </c>
       <c r="C11" t="n">
-        <v>950</v>
+        <v>997.7000122070312</v>
       </c>
       <c r="D11" t="n">
-        <v>844</v>
+        <v>790.0999755859375</v>
       </c>
       <c r="E11" t="n">
-        <v>915.7000122070312</v>
+        <v>882.5999755859375</v>
       </c>
       <c r="F11" t="n">
-        <v>868.0747680664062</v>
+        <v>836.6962890625</v>
       </c>
       <c r="G11" t="n">
-        <v>8615523</v>
+        <v>13591343</v>
       </c>
       <c r="H11" t="n">
         <v>2016</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="B12" t="n">
-        <v>927</v>
+        <v>893.4000244140625</v>
       </c>
       <c r="C12" t="n">
-        <v>977.7999877929688</v>
+        <v>950</v>
       </c>
       <c r="D12" t="n">
-        <v>916.4500122070312</v>
+        <v>844</v>
       </c>
       <c r="E12" t="n">
-        <v>930.7000122070312</v>
+        <v>915.7000122070312</v>
       </c>
       <c r="F12" t="n">
-        <v>897.89306640625</v>
+        <v>868.0747680664062</v>
       </c>
       <c r="G12" t="n">
-        <v>3241583</v>
+        <v>8615523</v>
       </c>
       <c r="H12" t="n">
         <v>2016</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>42675</v>
+        <v>42644</v>
       </c>
       <c r="B13" t="n">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="C13" t="n">
-        <v>965.9500122070312</v>
+        <v>977.7999877929688</v>
       </c>
       <c r="D13" t="n">
-        <v>806.5499877929688</v>
+        <v>916.4500122070312</v>
       </c>
       <c r="E13" t="n">
-        <v>859.7999877929688</v>
+        <v>930.7000122070312</v>
       </c>
       <c r="F13" t="n">
-        <v>829.4922485351562</v>
+        <v>897.89306640625</v>
       </c>
       <c r="G13" t="n">
-        <v>5970101</v>
+        <v>3241583</v>
       </c>
       <c r="H13" t="n">
         <v>2016</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>42705</v>
+        <v>42675</v>
       </c>
       <c r="B14" t="n">
-        <v>855</v>
+        <v>945</v>
       </c>
       <c r="C14" t="n">
-        <v>860</v>
+        <v>965.9500122070312</v>
       </c>
       <c r="D14" t="n">
-        <v>811</v>
+        <v>806.5499877929688</v>
       </c>
       <c r="E14" t="n">
-        <v>821.4500122070312</v>
+        <v>859.7999877929688</v>
       </c>
       <c r="F14" t="n">
-        <v>792.494140625</v>
+        <v>829.4922485351562</v>
       </c>
       <c r="G14" t="n">
-        <v>2572547</v>
+        <v>5970101</v>
       </c>
       <c r="H14" t="n">
         <v>2016</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="B15" t="n">
-        <v>816.7000122070312</v>
+        <v>855</v>
       </c>
       <c r="C15" t="n">
-        <v>944</v>
+        <v>860</v>
       </c>
       <c r="D15" t="n">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E15" t="n">
-        <v>903</v>
+        <v>821.4500122070312</v>
       </c>
       <c r="F15" t="n">
-        <v>871.16943359375</v>
+        <v>792.494140625</v>
       </c>
       <c r="G15" t="n">
-        <v>3240026</v>
+        <v>2572547</v>
       </c>
       <c r="H15" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>42767</v>
+        <v>42736</v>
       </c>
       <c r="B16" t="n">
-        <v>850</v>
+        <v>816.7000122070312</v>
       </c>
       <c r="C16" t="n">
-        <v>877</v>
+        <v>944</v>
       </c>
       <c r="D16" t="n">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E16" t="n">
-        <v>856.9000244140625</v>
+        <v>903</v>
       </c>
       <c r="F16" t="n">
-        <v>826.6945190429688</v>
+        <v>871.16943359375</v>
       </c>
       <c r="G16" t="n">
-        <v>5832373</v>
+        <v>3240026</v>
       </c>
       <c r="H16" t="n">
         <v>2017</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B17" t="n">
-        <v>860.1500244140625</v>
+        <v>850</v>
       </c>
       <c r="C17" t="n">
-        <v>1094</v>
+        <v>877</v>
       </c>
       <c r="D17" t="n">
-        <v>852.0999755859375</v>
+        <v>815</v>
       </c>
       <c r="E17" t="n">
-        <v>1051.400024414062</v>
+        <v>856.9000244140625</v>
       </c>
       <c r="F17" t="n">
-        <v>1014.33837890625</v>
+        <v>826.6945190429688</v>
       </c>
       <c r="G17" t="n">
-        <v>17614098</v>
+        <v>5832373</v>
       </c>
       <c r="H17" t="n">
         <v>2017</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B18" t="n">
-        <v>1060</v>
+        <v>860.1500244140625</v>
       </c>
       <c r="C18" t="n">
-        <v>1168.699951171875</v>
+        <v>1094</v>
       </c>
       <c r="D18" t="n">
-        <v>1022.599975585938</v>
+        <v>852.0999755859375</v>
       </c>
       <c r="E18" t="n">
-        <v>1105.849975585938</v>
+        <v>1051.400024414062</v>
       </c>
       <c r="F18" t="n">
-        <v>1066.869018554688</v>
+        <v>1014.33837890625</v>
       </c>
       <c r="G18" t="n">
-        <v>9473568</v>
+        <v>17614098</v>
       </c>
       <c r="H18" t="n">
         <v>2017</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B19" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1168.699951171875</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1022.599975585938</v>
+      </c>
+      <c r="E19" t="n">
         <v>1105.849975585938</v>
       </c>
-      <c r="C19" t="n">
-        <v>1152</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1004</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1106.900024414062</v>
-      </c>
       <c r="F19" t="n">
-        <v>1067.881958007812</v>
+        <v>1066.869018554688</v>
       </c>
       <c r="G19" t="n">
-        <v>10845084</v>
+        <v>9473568</v>
       </c>
       <c r="H19" t="n">
         <v>2017</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B20" t="n">
-        <v>1119.800048828125</v>
+        <v>1105.849975585938</v>
       </c>
       <c r="C20" t="n">
-        <v>1274.75</v>
+        <v>1152</v>
       </c>
       <c r="D20" t="n">
-        <v>1100</v>
+        <v>1004</v>
       </c>
       <c r="E20" t="n">
-        <v>1166.550048828125</v>
+        <v>1106.900024414062</v>
       </c>
       <c r="F20" t="n">
-        <v>1125.429443359375</v>
+        <v>1067.881958007812</v>
       </c>
       <c r="G20" t="n">
-        <v>12372938</v>
+        <v>10845084</v>
       </c>
       <c r="H20" t="n">
         <v>2017</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B21" t="n">
-        <v>1160</v>
+        <v>1119.800048828125</v>
       </c>
       <c r="C21" t="n">
-        <v>1317.199951171875</v>
+        <v>1274.75</v>
       </c>
       <c r="D21" t="n">
-        <v>1157.949951171875</v>
+        <v>1100</v>
       </c>
       <c r="E21" t="n">
-        <v>1290.75</v>
+        <v>1166.550048828125</v>
       </c>
       <c r="F21" t="n">
-        <v>1245.251342773438</v>
+        <v>1125.429443359375</v>
       </c>
       <c r="G21" t="n">
-        <v>11786374</v>
+        <v>12372938</v>
       </c>
       <c r="H21" t="n">
         <v>2017</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B22" t="n">
-        <v>1320</v>
+        <v>1160</v>
       </c>
       <c r="C22" t="n">
-        <v>1346.699951171875</v>
+        <v>1317.199951171875</v>
       </c>
       <c r="D22" t="n">
-        <v>1161.550048828125</v>
+        <v>1157.949951171875</v>
       </c>
       <c r="E22" t="n">
-        <v>1228.300048828125</v>
+        <v>1290.75</v>
       </c>
       <c r="F22" t="n">
-        <v>1185.002685546875</v>
+        <v>1245.251342773438</v>
       </c>
       <c r="G22" t="n">
-        <v>13737156</v>
+        <v>11786374</v>
       </c>
       <c r="H22" t="n">
         <v>2017</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B23" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="C23" t="n">
-        <v>1274</v>
+        <v>1346.699951171875</v>
       </c>
       <c r="D23" t="n">
-        <v>1022</v>
+        <v>1161.550048828125</v>
       </c>
       <c r="E23" t="n">
-        <v>1096.800048828125</v>
+        <v>1228.300048828125</v>
       </c>
       <c r="F23" t="n">
-        <v>1086.280029296875</v>
+        <v>1185.002685546875</v>
       </c>
       <c r="G23" t="n">
-        <v>16447531</v>
+        <v>13737156</v>
       </c>
       <c r="H23" t="n">
         <v>2017</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B24" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1274</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E24" t="n">
         <v>1096.800048828125</v>
       </c>
-      <c r="C24" t="n">
-        <v>1252</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1076.400024414062</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1247.849975585938</v>
-      </c>
       <c r="F24" t="n">
-        <v>1235.881225585938</v>
+        <v>1086.280029296875</v>
       </c>
       <c r="G24" t="n">
-        <v>10587817</v>
+        <v>16447531</v>
       </c>
       <c r="H24" t="n">
         <v>2017</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B25" t="n">
-        <v>1294</v>
+        <v>1096.800048828125</v>
       </c>
       <c r="C25" t="n">
-        <v>1298.699951171875</v>
+        <v>1252</v>
       </c>
       <c r="D25" t="n">
-        <v>1115.5</v>
+        <v>1076.400024414062</v>
       </c>
       <c r="E25" t="n">
-        <v>1121.550048828125</v>
+        <v>1247.849975585938</v>
       </c>
       <c r="F25" t="n">
-        <v>1110.792724609375</v>
+        <v>1235.881225585938</v>
       </c>
       <c r="G25" t="n">
-        <v>10708610</v>
+        <v>10587817</v>
       </c>
       <c r="H25" t="n">
         <v>2017</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B26" t="n">
-        <v>1122.099975585938</v>
+        <v>1294</v>
       </c>
       <c r="C26" t="n">
-        <v>1228.900024414062</v>
+        <v>1298.699951171875</v>
       </c>
       <c r="D26" t="n">
-        <v>1114.25</v>
+        <v>1115.5</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.5</v>
+        <v>1121.550048828125</v>
       </c>
       <c r="F26" t="n">
-        <v>1193.9375</v>
+        <v>1110.792724609375</v>
       </c>
       <c r="G26" t="n">
-        <v>12130070</v>
+        <v>10708610</v>
       </c>
       <c r="H26" t="n">
         <v>2017</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1846,36 +1838,36 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B27" t="n">
-        <v>1205.949951171875</v>
+        <v>1122.099975585938</v>
       </c>
       <c r="C27" t="n">
-        <v>1279</v>
+        <v>1228.900024414062</v>
       </c>
       <c r="D27" t="n">
-        <v>1175.300048828125</v>
+        <v>1114.25</v>
       </c>
       <c r="E27" t="n">
-        <v>1214.949951171875</v>
+        <v>1205.5</v>
       </c>
       <c r="F27" t="n">
-        <v>1203.296752929688</v>
+        <v>1193.9375</v>
       </c>
       <c r="G27" t="n">
-        <v>12407070</v>
+        <v>12130070</v>
       </c>
       <c r="H27" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1899,36 +1891,36 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B28" t="n">
-        <v>1220</v>
+        <v>1205.949951171875</v>
       </c>
       <c r="C28" t="n">
-        <v>1357.150024414062</v>
+        <v>1279</v>
       </c>
       <c r="D28" t="n">
-        <v>1145</v>
+        <v>1175.300048828125</v>
       </c>
       <c r="E28" t="n">
-        <v>1335.699951171875</v>
+        <v>1214.949951171875</v>
       </c>
       <c r="F28" t="n">
-        <v>1322.888671875</v>
+        <v>1203.296752929688</v>
       </c>
       <c r="G28" t="n">
-        <v>13960426</v>
+        <v>12407070</v>
       </c>
       <c r="H28" t="n">
         <v>2018</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B29" t="n">
-        <v>1339</v>
+        <v>1220</v>
       </c>
       <c r="C29" t="n">
-        <v>1350</v>
+        <v>1357.150024414062</v>
       </c>
       <c r="D29" t="n">
-        <v>1190.099975585938</v>
+        <v>1145</v>
       </c>
       <c r="E29" t="n">
-        <v>1290.449951171875</v>
+        <v>1335.699951171875</v>
       </c>
       <c r="F29" t="n">
-        <v>1278.072509765625</v>
+        <v>1322.888671875</v>
       </c>
       <c r="G29" t="n">
-        <v>18765414</v>
+        <v>13960426</v>
       </c>
       <c r="H29" t="n">
         <v>2018</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B30" t="n">
-        <v>1282</v>
+        <v>1339</v>
       </c>
       <c r="C30" t="n">
-        <v>1520</v>
+        <v>1350</v>
       </c>
       <c r="D30" t="n">
-        <v>1282</v>
+        <v>1190.099975585938</v>
       </c>
       <c r="E30" t="n">
-        <v>1402.800048828125</v>
+        <v>1290.449951171875</v>
       </c>
       <c r="F30" t="n">
-        <v>1389.345092773438</v>
+        <v>1278.072509765625</v>
       </c>
       <c r="G30" t="n">
-        <v>21329531</v>
+        <v>18765414</v>
       </c>
       <c r="H30" t="n">
         <v>2018</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B31" t="n">
+        <v>1282</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1520</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1282</v>
+      </c>
+      <c r="E31" t="n">
         <v>1402.800048828125</v>
       </c>
-      <c r="C31" t="n">
-        <v>1412.800048828125</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1077.550048828125</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1219.25</v>
-      </c>
       <c r="F31" t="n">
-        <v>1207.555541992188</v>
+        <v>1389.345092773438</v>
       </c>
       <c r="G31" t="n">
-        <v>47496501</v>
+        <v>21329531</v>
       </c>
       <c r="H31" t="n">
         <v>2018</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B32" t="n">
-        <v>1209.25</v>
+        <v>1402.800048828125</v>
       </c>
       <c r="C32" t="n">
-        <v>1250</v>
+        <v>1412.800048828125</v>
       </c>
       <c r="D32" t="n">
-        <v>1070.099975585938</v>
+        <v>1077.550048828125</v>
       </c>
       <c r="E32" t="n">
-        <v>1088.5</v>
+        <v>1219.25</v>
       </c>
       <c r="F32" t="n">
-        <v>1078.0595703125</v>
+        <v>1207.555541992188</v>
       </c>
       <c r="G32" t="n">
-        <v>22122852</v>
+        <v>47496501</v>
       </c>
       <c r="H32" t="n">
         <v>2018</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B33" t="n">
-        <v>1093</v>
+        <v>1209.25</v>
       </c>
       <c r="C33" t="n">
-        <v>1138.849975585938</v>
+        <v>1250</v>
       </c>
       <c r="D33" t="n">
-        <v>890.5499877929688</v>
+        <v>1070.099975585938</v>
       </c>
       <c r="E33" t="n">
-        <v>929.7000122070312</v>
+        <v>1088.5</v>
       </c>
       <c r="F33" t="n">
-        <v>920.7827758789062</v>
+        <v>1078.0595703125</v>
       </c>
       <c r="G33" t="n">
-        <v>25085463</v>
+        <v>22122852</v>
       </c>
       <c r="H33" t="n">
         <v>2018</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B34" t="n">
-        <v>935</v>
+        <v>1093</v>
       </c>
       <c r="C34" t="n">
-        <v>1106</v>
+        <v>1138.849975585938</v>
       </c>
       <c r="D34" t="n">
-        <v>919</v>
+        <v>890.5499877929688</v>
       </c>
       <c r="E34" t="n">
-        <v>928.8499755859375</v>
+        <v>929.7000122070312</v>
       </c>
       <c r="F34" t="n">
-        <v>919.94091796875</v>
+        <v>920.7827758789062</v>
       </c>
       <c r="G34" t="n">
-        <v>28903590</v>
+        <v>25085463</v>
       </c>
       <c r="H34" t="n">
         <v>2018</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2270,36 +2262,36 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B35" t="n">
-        <v>934.7999877929688</v>
+        <v>935</v>
       </c>
       <c r="C35" t="n">
-        <v>956.0999755859375</v>
+        <v>1106</v>
       </c>
       <c r="D35" t="n">
-        <v>816.5</v>
+        <v>919</v>
       </c>
       <c r="E35" t="n">
-        <v>826.0999755859375</v>
+        <v>928.8499755859375</v>
       </c>
       <c r="F35" t="n">
-        <v>823.5198974609375</v>
+        <v>919.94091796875</v>
       </c>
       <c r="G35" t="n">
-        <v>28325745</v>
+        <v>28903590</v>
       </c>
       <c r="H35" t="n">
         <v>2018</v>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2323,36 +2315,36 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B36" t="n">
-        <v>812</v>
+        <v>934.7999877929688</v>
       </c>
       <c r="C36" t="n">
-        <v>901.5999755859375</v>
+        <v>956.0999755859375</v>
       </c>
       <c r="D36" t="n">
-        <v>691</v>
+        <v>816.5</v>
       </c>
       <c r="E36" t="n">
-        <v>888.9000244140625</v>
+        <v>826.0999755859375</v>
       </c>
       <c r="F36" t="n">
-        <v>886.123779296875</v>
+        <v>823.5198974609375</v>
       </c>
       <c r="G36" t="n">
-        <v>38433385</v>
+        <v>28325745</v>
       </c>
       <c r="H36" t="n">
         <v>2018</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B37" t="n">
-        <v>890</v>
+        <v>812</v>
       </c>
       <c r="C37" t="n">
-        <v>1079</v>
+        <v>901.5999755859375</v>
       </c>
       <c r="D37" t="n">
-        <v>889.1500244140625</v>
+        <v>691</v>
       </c>
       <c r="E37" t="n">
-        <v>1038.25</v>
+        <v>888.9000244140625</v>
       </c>
       <c r="F37" t="n">
-        <v>1035.00732421875</v>
+        <v>886.123779296875</v>
       </c>
       <c r="G37" t="n">
-        <v>26563609</v>
+        <v>38433385</v>
       </c>
       <c r="H37" t="n">
         <v>2018</v>
       </c>
       <c r="I37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B38" t="n">
-        <v>1056</v>
+        <v>890</v>
       </c>
       <c r="C38" t="n">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="D38" t="n">
-        <v>956.3499755859375</v>
+        <v>889.1500244140625</v>
       </c>
       <c r="E38" t="n">
-        <v>1165.050048828125</v>
+        <v>1038.25</v>
       </c>
       <c r="F38" t="n">
-        <v>1161.411376953125</v>
+        <v>1035.00732421875</v>
       </c>
       <c r="G38" t="n">
-        <v>21385988</v>
+        <v>26563609</v>
       </c>
       <c r="H38" t="n">
         <v>2018</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2487,31 +2479,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B39" t="n">
-        <v>1174.949951171875</v>
+        <v>1056</v>
       </c>
       <c r="C39" t="n">
-        <v>1198.900024414062</v>
+        <v>1188</v>
       </c>
       <c r="D39" t="n">
-        <v>1046.650024414062</v>
+        <v>956.3499755859375</v>
       </c>
       <c r="E39" t="n">
-        <v>1187.800048828125</v>
+        <v>1165.050048828125</v>
       </c>
       <c r="F39" t="n">
-        <v>1184.09033203125</v>
+        <v>1161.411376953125</v>
       </c>
       <c r="G39" t="n">
-        <v>32671299</v>
+        <v>21385988</v>
       </c>
       <c r="H39" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B40" t="n">
-        <v>1185</v>
+        <v>1174.949951171875</v>
       </c>
       <c r="C40" t="n">
-        <v>1217</v>
+        <v>1198.900024414062</v>
       </c>
       <c r="D40" t="n">
-        <v>1078.300048828125</v>
+        <v>1046.650024414062</v>
       </c>
       <c r="E40" t="n">
-        <v>1125.349975585938</v>
+        <v>1187.800048828125</v>
       </c>
       <c r="F40" t="n">
-        <v>1121.835205078125</v>
+        <v>1184.09033203125</v>
       </c>
       <c r="G40" t="n">
-        <v>17008137</v>
+        <v>32671299</v>
       </c>
       <c r="H40" t="n">
         <v>2019</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2588,36 +2580,36 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B41" t="n">
-        <v>1113.949951171875</v>
+        <v>1185</v>
       </c>
       <c r="C41" t="n">
-        <v>1462</v>
+        <v>1217</v>
       </c>
       <c r="D41" t="n">
-        <v>1093.150024414062</v>
+        <v>1078.300048828125</v>
       </c>
       <c r="E41" t="n">
-        <v>1428.150024414062</v>
+        <v>1125.349975585938</v>
       </c>
       <c r="F41" t="n">
-        <v>1423.689575195312</v>
+        <v>1121.835205078125</v>
       </c>
       <c r="G41" t="n">
-        <v>34134573</v>
+        <v>17008137</v>
       </c>
       <c r="H41" t="n">
         <v>2019</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2641,36 +2633,36 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B42" t="n">
-        <v>1426.25</v>
+        <v>1113.949951171875</v>
       </c>
       <c r="C42" t="n">
-        <v>1650</v>
+        <v>1462</v>
       </c>
       <c r="D42" t="n">
-        <v>1361.349975585938</v>
+        <v>1093.150024414062</v>
       </c>
       <c r="E42" t="n">
-        <v>1517</v>
+        <v>1428.150024414062</v>
       </c>
       <c r="F42" t="n">
-        <v>1512.262084960938</v>
+        <v>1423.689575195312</v>
       </c>
       <c r="G42" t="n">
-        <v>46197841</v>
+        <v>34134573</v>
       </c>
       <c r="H42" t="n">
         <v>2019</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2699,31 +2691,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B43" t="n">
+        <v>1426.25</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1361.349975585938</v>
+      </c>
+      <c r="E43" t="n">
         <v>1517</v>
       </c>
-      <c r="C43" t="n">
-        <v>1716</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1413.699951171875</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1676.300048828125</v>
-      </c>
       <c r="F43" t="n">
-        <v>1671.064575195312</v>
+        <v>1512.262084960938</v>
       </c>
       <c r="G43" t="n">
-        <v>60858004</v>
+        <v>46197841</v>
       </c>
       <c r="H43" t="n">
         <v>2019</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B44" t="n">
-        <v>1696.099975585938</v>
+        <v>1517</v>
       </c>
       <c r="C44" t="n">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="D44" t="n">
-        <v>1531.050048828125</v>
+        <v>1413.699951171875</v>
       </c>
       <c r="E44" t="n">
-        <v>1557.949951171875</v>
+        <v>1676.300048828125</v>
       </c>
       <c r="F44" t="n">
-        <v>1553.084106445312</v>
+        <v>1671.064575195312</v>
       </c>
       <c r="G44" t="n">
-        <v>21595566</v>
+        <v>60858004</v>
       </c>
       <c r="H44" t="n">
         <v>2019</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B45" t="n">
-        <v>1560.5</v>
+        <v>1696.099975585938</v>
       </c>
       <c r="C45" t="n">
-        <v>1661</v>
+        <v>1711</v>
       </c>
       <c r="D45" t="n">
-        <v>1264.849975585938</v>
+        <v>1531.050048828125</v>
       </c>
       <c r="E45" t="n">
-        <v>1557.199951171875</v>
+        <v>1557.949951171875</v>
       </c>
       <c r="F45" t="n">
-        <v>1552.33642578125</v>
+        <v>1553.084106445312</v>
       </c>
       <c r="G45" t="n">
-        <v>83277995</v>
+        <v>21595566</v>
       </c>
       <c r="H45" t="n">
         <v>2019</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B46" t="n">
-        <v>1551</v>
+        <v>1560.5</v>
       </c>
       <c r="C46" t="n">
-        <v>1696.099975585938</v>
+        <v>1661</v>
       </c>
       <c r="D46" t="n">
-        <v>1411.650024414062</v>
+        <v>1264.849975585938</v>
       </c>
       <c r="E46" t="n">
-        <v>1690.449951171875</v>
+        <v>1557.199951171875</v>
       </c>
       <c r="F46" t="n">
-        <v>1685.170288085938</v>
+        <v>1552.33642578125</v>
       </c>
       <c r="G46" t="n">
-        <v>27331393</v>
+        <v>83277995</v>
       </c>
       <c r="H46" t="n">
         <v>2019</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -2911,31 +2903,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B47" t="n">
+        <v>1551</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1696.099975585938</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1411.650024414062</v>
+      </c>
+      <c r="E47" t="n">
         <v>1690.449951171875</v>
       </c>
-      <c r="C47" t="n">
-        <v>1898.849975585938</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1597.949951171875</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1889.650024414062</v>
-      </c>
       <c r="F47" t="n">
-        <v>1889.650024414062</v>
+        <v>1685.170288085938</v>
       </c>
       <c r="G47" t="n">
-        <v>21385925</v>
+        <v>27331393</v>
       </c>
       <c r="H47" t="n">
         <v>2019</v>
       </c>
       <c r="I47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,45 +2942,45 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B48" t="n">
-        <v>1878</v>
+        <v>1690.449951171875</v>
       </c>
       <c r="C48" t="n">
-        <v>1888.849975585938</v>
+        <v>1898.849975585938</v>
       </c>
       <c r="D48" t="n">
-        <v>1377.949951171875</v>
+        <v>1597.949951171875</v>
       </c>
       <c r="E48" t="n">
-        <v>1456.849975585938</v>
+        <v>1889.650024414062</v>
       </c>
       <c r="F48" t="n">
-        <v>1456.849975585938</v>
+        <v>1889.650024414062</v>
       </c>
       <c r="G48" t="n">
-        <v>38077181</v>
+        <v>21385925</v>
       </c>
       <c r="H48" t="n">
         <v>2019</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,45 +2995,45 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B49" t="n">
-        <v>1472.300048828125</v>
+        <v>1878</v>
       </c>
       <c r="C49" t="n">
-        <v>1541.75</v>
+        <v>1888.849975585938</v>
       </c>
       <c r="D49" t="n">
-        <v>1357.25</v>
+        <v>1377.949951171875</v>
       </c>
       <c r="E49" t="n">
-        <v>1444.199951171875</v>
+        <v>1456.849975585938</v>
       </c>
       <c r="F49" t="n">
-        <v>1444.199951171875</v>
+        <v>1456.849975585938</v>
       </c>
       <c r="G49" t="n">
-        <v>36743702</v>
+        <v>38077181</v>
       </c>
       <c r="H49" t="n">
         <v>2019</v>
       </c>
       <c r="I49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3065,36 +3057,36 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B50" t="n">
-        <v>1458</v>
+        <v>1472.300048828125</v>
       </c>
       <c r="C50" t="n">
-        <v>1461.900024414062</v>
+        <v>1541.75</v>
       </c>
       <c r="D50" t="n">
-        <v>1277.099975585938</v>
+        <v>1357.25</v>
       </c>
       <c r="E50" t="n">
-        <v>1333.550048828125</v>
+        <v>1444.199951171875</v>
       </c>
       <c r="F50" t="n">
-        <v>1333.550048828125</v>
+        <v>1444.199951171875</v>
       </c>
       <c r="G50" t="n">
-        <v>25403319</v>
+        <v>36743702</v>
       </c>
       <c r="H50" t="n">
         <v>2019</v>
       </c>
       <c r="I50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3118,36 +3110,36 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B51" t="n">
+        <v>1458</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1461.900024414062</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1277.099975585938</v>
+      </c>
+      <c r="E51" t="n">
         <v>1333.550048828125</v>
       </c>
-      <c r="C51" t="n">
-        <v>1541</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1301.400024414062</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1378.25</v>
-      </c>
       <c r="F51" t="n">
-        <v>1378.25</v>
+        <v>1333.550048828125</v>
       </c>
       <c r="G51" t="n">
-        <v>36793623</v>
+        <v>25403319</v>
       </c>
       <c r="H51" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3171,89 +3163,89 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B52" t="n">
-        <v>1369</v>
+        <v>1333.550048828125</v>
       </c>
       <c r="C52" t="n">
-        <v>1493.400024414062</v>
+        <v>1541</v>
       </c>
       <c r="D52" t="n">
-        <v>1220.5</v>
+        <v>1301.400024414062</v>
       </c>
       <c r="E52" t="n">
-        <v>1300.050048828125</v>
+        <v>1378.25</v>
       </c>
       <c r="F52" t="n">
-        <v>1300.050048828125</v>
+        <v>1378.25</v>
       </c>
       <c r="G52" t="n">
-        <v>26227906</v>
+        <v>36793623</v>
       </c>
       <c r="H52" t="n">
         <v>2020</v>
       </c>
       <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
         <v>2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>5</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B53" t="n">
-        <v>1313</v>
+        <v>1369</v>
       </c>
       <c r="C53" t="n">
-        <v>1347.949951171875</v>
+        <v>1493.400024414062</v>
       </c>
       <c r="D53" t="n">
-        <v>771.2999877929688</v>
+        <v>1220.5</v>
       </c>
       <c r="E53" t="n">
-        <v>1066.150024414062</v>
+        <v>1300.050048828125</v>
       </c>
       <c r="F53" t="n">
-        <v>1066.150024414062</v>
+        <v>1300.050048828125</v>
       </c>
       <c r="G53" t="n">
-        <v>55215686</v>
+        <v>26227906</v>
       </c>
       <c r="H53" t="n">
         <v>2020</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B54" t="n">
-        <v>1051</v>
+        <v>1313</v>
       </c>
       <c r="C54" t="n">
-        <v>1090.849975585938</v>
+        <v>1347.949951171875</v>
       </c>
       <c r="D54" t="n">
-        <v>865</v>
+        <v>771.2999877929688</v>
       </c>
       <c r="E54" t="n">
-        <v>995.25</v>
+        <v>1066.150024414062</v>
       </c>
       <c r="F54" t="n">
-        <v>995.25</v>
+        <v>1066.150024414062</v>
       </c>
       <c r="G54" t="n">
-        <v>45103942</v>
+        <v>55215686</v>
       </c>
       <c r="H54" t="n">
         <v>2020</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B55" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1090.849975585938</v>
+      </c>
+      <c r="D55" t="n">
+        <v>865</v>
+      </c>
+      <c r="E55" t="n">
         <v>995.25</v>
       </c>
-      <c r="C55" t="n">
-        <v>1060</v>
-      </c>
-      <c r="D55" t="n">
-        <v>850</v>
-      </c>
-      <c r="E55" t="n">
-        <v>965.5</v>
-      </c>
       <c r="F55" t="n">
-        <v>965.5</v>
+        <v>995.25</v>
       </c>
       <c r="G55" t="n">
-        <v>71043062</v>
+        <v>45103942</v>
       </c>
       <c r="H55" t="n">
         <v>2020</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B56" t="n">
-        <v>972</v>
+        <v>995.25</v>
       </c>
       <c r="C56" t="n">
-        <v>1210</v>
+        <v>1060</v>
       </c>
       <c r="D56" t="n">
-        <v>935</v>
+        <v>850</v>
       </c>
       <c r="E56" t="n">
-        <v>988.8499755859375</v>
+        <v>965.5</v>
       </c>
       <c r="F56" t="n">
-        <v>988.8499755859375</v>
+        <v>965.5</v>
       </c>
       <c r="G56" t="n">
-        <v>74971269</v>
+        <v>71043062</v>
       </c>
       <c r="H56" t="n">
         <v>2020</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3441,31 +3433,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B57" t="n">
-        <v>996.9000244140625</v>
+        <v>972</v>
       </c>
       <c r="C57" t="n">
-        <v>1075.349975585938</v>
+        <v>1210</v>
       </c>
       <c r="D57" t="n">
-        <v>875.25</v>
+        <v>935</v>
       </c>
       <c r="E57" t="n">
-        <v>979.8499755859375</v>
+        <v>988.8499755859375</v>
       </c>
       <c r="F57" t="n">
-        <v>979.8499755859375</v>
+        <v>988.8499755859375</v>
       </c>
       <c r="G57" t="n">
-        <v>40471981</v>
+        <v>74971269</v>
       </c>
       <c r="H57" t="n">
         <v>2020</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3489,36 +3481,36 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B58" t="n">
-        <v>975.0499877929688</v>
+        <v>996.9000244140625</v>
       </c>
       <c r="C58" t="n">
-        <v>1253</v>
+        <v>1075.349975585938</v>
       </c>
       <c r="D58" t="n">
-        <v>928</v>
+        <v>875.25</v>
       </c>
       <c r="E58" t="n">
-        <v>1199.150024414062</v>
+        <v>979.8499755859375</v>
       </c>
       <c r="F58" t="n">
-        <v>1199.150024414062</v>
+        <v>979.8499755859375</v>
       </c>
       <c r="G58" t="n">
-        <v>83612313</v>
+        <v>40471981</v>
       </c>
       <c r="H58" t="n">
         <v>2020</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3542,36 +3534,36 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B59" t="n">
-        <v>1205.300048828125</v>
+        <v>975.0499877929688</v>
       </c>
       <c r="C59" t="n">
-        <v>1355</v>
+        <v>1253</v>
       </c>
       <c r="D59" t="n">
-        <v>1180.849975585938</v>
+        <v>928</v>
       </c>
       <c r="E59" t="n">
-        <v>1249.099975585938</v>
+        <v>1199.150024414062</v>
       </c>
       <c r="F59" t="n">
-        <v>1249.099975585938</v>
+        <v>1199.150024414062</v>
       </c>
       <c r="G59" t="n">
-        <v>55614131</v>
+        <v>83612313</v>
       </c>
       <c r="H59" t="n">
         <v>2020</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3600,31 +3592,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B60" t="n">
-        <v>1251</v>
+        <v>1205.300048828125</v>
       </c>
       <c r="C60" t="n">
-        <v>1396</v>
+        <v>1355</v>
       </c>
       <c r="D60" t="n">
-        <v>1251</v>
+        <v>1180.849975585938</v>
       </c>
       <c r="E60" t="n">
-        <v>1309.5</v>
+        <v>1249.099975585938</v>
       </c>
       <c r="F60" t="n">
-        <v>1309.5</v>
+        <v>1249.099975585938</v>
       </c>
       <c r="G60" t="n">
-        <v>29312310</v>
+        <v>55614131</v>
       </c>
       <c r="H60" t="n">
         <v>2020</v>
       </c>
       <c r="I60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3653,31 +3645,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B61" t="n">
-        <v>1315</v>
+        <v>1251</v>
       </c>
       <c r="C61" t="n">
-        <v>1743.849975585938</v>
+        <v>1396</v>
       </c>
       <c r="D61" t="n">
-        <v>1285</v>
+        <v>1251</v>
       </c>
       <c r="E61" t="n">
-        <v>1514.150024414062</v>
+        <v>1309.5</v>
       </c>
       <c r="F61" t="n">
-        <v>1514.150024414062</v>
+        <v>1309.5</v>
       </c>
       <c r="G61" t="n">
-        <v>44139641</v>
+        <v>29312310</v>
       </c>
       <c r="H61" t="n">
         <v>2020</v>
       </c>
       <c r="I61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3706,31 +3698,31 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B62" t="n">
-        <v>1530</v>
+        <v>1315</v>
       </c>
       <c r="C62" t="n">
-        <v>1787</v>
+        <v>1743.849975585938</v>
       </c>
       <c r="D62" t="n">
-        <v>1425</v>
+        <v>1285</v>
       </c>
       <c r="E62" t="n">
-        <v>1723.300048828125</v>
+        <v>1514.150024414062</v>
       </c>
       <c r="F62" t="n">
-        <v>1723.300048828125</v>
+        <v>1514.150024414062</v>
       </c>
       <c r="G62" t="n">
-        <v>43180740</v>
+        <v>44139641</v>
       </c>
       <c r="H62" t="n">
         <v>2020</v>
       </c>
       <c r="I62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3759,31 +3751,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B63" t="n">
-        <v>1719</v>
+        <v>1530</v>
       </c>
       <c r="C63" t="n">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="D63" t="n">
-        <v>1534</v>
+        <v>1425</v>
       </c>
       <c r="E63" t="n">
-        <v>1547.75</v>
+        <v>1723.300048828125</v>
       </c>
       <c r="F63" t="n">
-        <v>1547.75</v>
+        <v>1723.300048828125</v>
       </c>
       <c r="G63" t="n">
-        <v>22643310</v>
+        <v>43180740</v>
       </c>
       <c r="H63" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -3812,31 +3804,31 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B64" t="n">
-        <v>1561</v>
+        <v>1719</v>
       </c>
       <c r="C64" t="n">
-        <v>1743.900024414062</v>
+        <v>1779</v>
       </c>
       <c r="D64" t="n">
-        <v>1502.300048828125</v>
+        <v>1534</v>
       </c>
       <c r="E64" t="n">
-        <v>1619.949951171875</v>
+        <v>1547.75</v>
       </c>
       <c r="F64" t="n">
-        <v>1619.949951171875</v>
+        <v>1547.75</v>
       </c>
       <c r="G64" t="n">
-        <v>23872804</v>
+        <v>22643310</v>
       </c>
       <c r="H64" t="n">
         <v>2021</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3865,31 +3857,31 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B65" t="n">
-        <v>1621</v>
+        <v>1561</v>
       </c>
       <c r="C65" t="n">
-        <v>1823.849975585938</v>
+        <v>1743.900024414062</v>
       </c>
       <c r="D65" t="n">
-        <v>1575.199951171875</v>
+        <v>1502.300048828125</v>
       </c>
       <c r="E65" t="n">
-        <v>1631.949951171875</v>
+        <v>1619.949951171875</v>
       </c>
       <c r="F65" t="n">
-        <v>1631.949951171875</v>
+        <v>1619.949951171875</v>
       </c>
       <c r="G65" t="n">
-        <v>29416499</v>
+        <v>23872804</v>
       </c>
       <c r="H65" t="n">
         <v>2021</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -3918,31 +3910,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B66" t="n">
-        <v>1631.900024414062</v>
+        <v>1621</v>
       </c>
       <c r="C66" t="n">
-        <v>1679.800048828125</v>
+        <v>1823.849975585938</v>
       </c>
       <c r="D66" t="n">
-        <v>1503</v>
+        <v>1575.199951171875</v>
       </c>
       <c r="E66" t="n">
-        <v>1643.400024414062</v>
+        <v>1631.949951171875</v>
       </c>
       <c r="F66" t="n">
-        <v>1643.400024414062</v>
+        <v>1631.949951171875</v>
       </c>
       <c r="G66" t="n">
-        <v>17212914</v>
+        <v>29416499</v>
       </c>
       <c r="H66" t="n">
         <v>2021</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -3971,31 +3963,31 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B67" t="n">
-        <v>1620</v>
+        <v>1631.900024414062</v>
       </c>
       <c r="C67" t="n">
-        <v>1831.150024414062</v>
+        <v>1679.800048828125</v>
       </c>
       <c r="D67" t="n">
-        <v>1596.599975585938</v>
+        <v>1503</v>
       </c>
       <c r="E67" t="n">
-        <v>1758.900024414062</v>
+        <v>1643.400024414062</v>
       </c>
       <c r="F67" t="n">
-        <v>1758.900024414062</v>
+        <v>1643.400024414062</v>
       </c>
       <c r="G67" t="n">
-        <v>13658966</v>
+        <v>17212914</v>
       </c>
       <c r="H67" t="n">
         <v>2021</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -4024,31 +4016,31 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B68" t="n">
-        <v>1761.5</v>
+        <v>1620</v>
       </c>
       <c r="C68" t="n">
-        <v>1859.599975585938</v>
+        <v>1831.150024414062</v>
       </c>
       <c r="D68" t="n">
-        <v>1665.099975585938</v>
+        <v>1596.599975585938</v>
       </c>
       <c r="E68" t="n">
-        <v>1716.949951171875</v>
+        <v>1758.900024414062</v>
       </c>
       <c r="F68" t="n">
-        <v>1716.949951171875</v>
+        <v>1758.900024414062</v>
       </c>
       <c r="G68" t="n">
-        <v>15398111</v>
+        <v>13658966</v>
       </c>
       <c r="H68" t="n">
         <v>2021</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4077,31 +4069,31 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B69" t="n">
-        <v>1717</v>
+        <v>1761.5</v>
       </c>
       <c r="C69" t="n">
-        <v>1860</v>
+        <v>1859.599975585938</v>
       </c>
       <c r="D69" t="n">
-        <v>1626.449951171875</v>
+        <v>1665.099975585938</v>
       </c>
       <c r="E69" t="n">
-        <v>1647.349975585938</v>
+        <v>1716.949951171875</v>
       </c>
       <c r="F69" t="n">
-        <v>1647.349975585938</v>
+        <v>1716.949951171875</v>
       </c>
       <c r="G69" t="n">
-        <v>15735491</v>
+        <v>15398111</v>
       </c>
       <c r="H69" t="n">
         <v>2021</v>
       </c>
       <c r="I69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4130,31 +4122,31 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B70" t="n">
-        <v>1657</v>
+        <v>1717</v>
       </c>
       <c r="C70" t="n">
-        <v>1924.050048828125</v>
+        <v>1860</v>
       </c>
       <c r="D70" t="n">
-        <v>1616.199951171875</v>
+        <v>1626.449951171875</v>
       </c>
       <c r="E70" t="n">
-        <v>1904.150024414062</v>
+        <v>1647.349975585938</v>
       </c>
       <c r="F70" t="n">
-        <v>1904.150024414062</v>
+        <v>1647.349975585938</v>
       </c>
       <c r="G70" t="n">
-        <v>12418880</v>
+        <v>15735491</v>
       </c>
       <c r="H70" t="n">
         <v>2021</v>
       </c>
       <c r="I70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4183,31 +4175,31 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B71" t="n">
-        <v>1906</v>
+        <v>1657</v>
       </c>
       <c r="C71" t="n">
-        <v>2307.14990234375</v>
+        <v>1924.050048828125</v>
       </c>
       <c r="D71" t="n">
-        <v>1865</v>
+        <v>1616.199951171875</v>
       </c>
       <c r="E71" t="n">
-        <v>2021.699951171875</v>
+        <v>1904.150024414062</v>
       </c>
       <c r="F71" t="n">
-        <v>2021.699951171875</v>
+        <v>1904.150024414062</v>
       </c>
       <c r="G71" t="n">
-        <v>28598959</v>
+        <v>12418880</v>
       </c>
       <c r="H71" t="n">
         <v>2021</v>
       </c>
       <c r="I71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4222,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -4236,31 +4228,31 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B72" t="n">
-        <v>2010</v>
+        <v>1906</v>
       </c>
       <c r="C72" t="n">
-        <v>2189.699951171875</v>
+        <v>2307.14990234375</v>
       </c>
       <c r="D72" t="n">
-        <v>1850</v>
+        <v>1865</v>
       </c>
       <c r="E72" t="n">
-        <v>2175.199951171875</v>
+        <v>2021.699951171875</v>
       </c>
       <c r="F72" t="n">
-        <v>2175.199951171875</v>
+        <v>2021.699951171875</v>
       </c>
       <c r="G72" t="n">
-        <v>19073541</v>
+        <v>28598959</v>
       </c>
       <c r="H72" t="n">
         <v>2021</v>
       </c>
       <c r="I72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4289,31 +4281,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B73" t="n">
-        <v>2168</v>
+        <v>2010</v>
       </c>
       <c r="C73" t="n">
-        <v>2380</v>
+        <v>2189.699951171875</v>
       </c>
       <c r="D73" t="n">
-        <v>1812.25</v>
+        <v>1850</v>
       </c>
       <c r="E73" t="n">
-        <v>1905.050048828125</v>
+        <v>2175.199951171875</v>
       </c>
       <c r="F73" t="n">
-        <v>1905.050048828125</v>
+        <v>2175.199951171875</v>
       </c>
       <c r="G73" t="n">
-        <v>22863596</v>
+        <v>19073541</v>
       </c>
       <c r="H73" t="n">
         <v>2021</v>
       </c>
       <c r="I73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,10 +4320,10 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -4342,31 +4334,31 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B74" t="n">
-        <v>1907.900024414062</v>
+        <v>2168</v>
       </c>
       <c r="C74" t="n">
-        <v>2066</v>
+        <v>2380</v>
       </c>
       <c r="D74" t="n">
-        <v>1771</v>
+        <v>1812.25</v>
       </c>
       <c r="E74" t="n">
-        <v>2017.550048828125</v>
+        <v>1905.050048828125</v>
       </c>
       <c r="F74" t="n">
-        <v>2017.550048828125</v>
+        <v>1905.050048828125</v>
       </c>
       <c r="G74" t="n">
-        <v>19966702</v>
+        <v>22863596</v>
       </c>
       <c r="H74" t="n">
         <v>2021</v>
       </c>
       <c r="I74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -4395,31 +4387,31 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B75" t="n">
-        <v>2001</v>
+        <v>1907.900024414062</v>
       </c>
       <c r="C75" t="n">
-        <v>2183</v>
+        <v>2066</v>
       </c>
       <c r="D75" t="n">
-        <v>1826</v>
+        <v>1771</v>
       </c>
       <c r="E75" t="n">
-        <v>1856.849975585938</v>
+        <v>2017.550048828125</v>
       </c>
       <c r="F75" t="n">
-        <v>1856.849975585938</v>
+        <v>2017.550048828125</v>
       </c>
       <c r="G75" t="n">
-        <v>18964685</v>
+        <v>19966702</v>
       </c>
       <c r="H75" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4448,31 +4440,31 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B76" t="n">
-        <v>1867.099975585938</v>
+        <v>2001</v>
       </c>
       <c r="C76" t="n">
-        <v>2282.10009765625</v>
+        <v>2183</v>
       </c>
       <c r="D76" t="n">
-        <v>1800</v>
+        <v>1826</v>
       </c>
       <c r="E76" t="n">
-        <v>1874.900024414062</v>
+        <v>1856.849975585938</v>
       </c>
       <c r="F76" t="n">
-        <v>1874.900024414062</v>
+        <v>1856.849975585938</v>
       </c>
       <c r="G76" t="n">
-        <v>27768620</v>
+        <v>18964685</v>
       </c>
       <c r="H76" t="n">
         <v>2022</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -4501,31 +4493,31 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B77" t="n">
+        <v>1867.099975585938</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2282.10009765625</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E77" t="n">
         <v>1874.900024414062</v>
       </c>
-      <c r="C77" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1555.099975585938</v>
-      </c>
-      <c r="E77" t="n">
-        <v>2014.150024414062</v>
-      </c>
       <c r="F77" t="n">
-        <v>2014.150024414062</v>
+        <v>1874.900024414062</v>
       </c>
       <c r="G77" t="n">
-        <v>34061255</v>
+        <v>27768620</v>
       </c>
       <c r="H77" t="n">
         <v>2022</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4549,36 +4541,36 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B78" t="n">
-        <v>2017.5</v>
+        <v>1874.900024414062</v>
       </c>
       <c r="C78" t="n">
-        <v>2038.900024414062</v>
+        <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>1782</v>
+        <v>1555.099975585938</v>
       </c>
       <c r="E78" t="n">
-        <v>1858.099975585938</v>
+        <v>2014.150024414062</v>
       </c>
       <c r="F78" t="n">
-        <v>1858.099975585938</v>
+        <v>2014.150024414062</v>
       </c>
       <c r="G78" t="n">
-        <v>11113260</v>
+        <v>34061255</v>
       </c>
       <c r="H78" t="n">
         <v>2022</v>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4602,36 +4594,36 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B79" t="n">
-        <v>1818.949951171875</v>
+        <v>2017.5</v>
       </c>
       <c r="C79" t="n">
-        <v>1875</v>
+        <v>2038.900024414062</v>
       </c>
       <c r="D79" t="n">
-        <v>1574.300048828125</v>
+        <v>1782</v>
       </c>
       <c r="E79" t="n">
-        <v>1838.550048828125</v>
+        <v>1858.099975585938</v>
       </c>
       <c r="F79" t="n">
-        <v>1838.550048828125</v>
+        <v>1858.099975585938</v>
       </c>
       <c r="G79" t="n">
-        <v>14601458</v>
+        <v>11113260</v>
       </c>
       <c r="H79" t="n">
         <v>2022</v>
       </c>
       <c r="I79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -4660,31 +4652,31 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B80" t="n">
-        <v>1865.949951171875</v>
+        <v>1818.949951171875</v>
       </c>
       <c r="C80" t="n">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="D80" t="n">
-        <v>1511.75</v>
+        <v>1574.300048828125</v>
       </c>
       <c r="E80" t="n">
-        <v>1606.199951171875</v>
+        <v>1838.550048828125</v>
       </c>
       <c r="F80" t="n">
-        <v>1606.199951171875</v>
+        <v>1838.550048828125</v>
       </c>
       <c r="G80" t="n">
-        <v>15923359</v>
+        <v>14601458</v>
       </c>
       <c r="H80" t="n">
         <v>2022</v>
       </c>
       <c r="I80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4699,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -4713,31 +4705,31 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B81" t="n">
-        <v>1610.550048828125</v>
+        <v>1865.949951171875</v>
       </c>
       <c r="C81" t="n">
-        <v>1892.900024414062</v>
+        <v>1880</v>
       </c>
       <c r="D81" t="n">
-        <v>1587.550048828125</v>
+        <v>1511.75</v>
       </c>
       <c r="E81" t="n">
-        <v>1867.949951171875</v>
+        <v>1606.199951171875</v>
       </c>
       <c r="F81" t="n">
-        <v>1867.949951171875</v>
+        <v>1606.199951171875</v>
       </c>
       <c r="G81" t="n">
-        <v>12966501</v>
+        <v>15923359</v>
       </c>
       <c r="H81" t="n">
         <v>2022</v>
       </c>
       <c r="I81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -4766,31 +4758,31 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B82" t="n">
-        <v>1893</v>
+        <v>1610.550048828125</v>
       </c>
       <c r="C82" t="n">
-        <v>2103.949951171875</v>
+        <v>1892.900024414062</v>
       </c>
       <c r="D82" t="n">
-        <v>1870</v>
+        <v>1587.550048828125</v>
       </c>
       <c r="E82" t="n">
-        <v>2016.800048828125</v>
+        <v>1867.949951171875</v>
       </c>
       <c r="F82" t="n">
-        <v>2016.800048828125</v>
+        <v>1867.949951171875</v>
       </c>
       <c r="G82" t="n">
-        <v>13938648</v>
+        <v>12966501</v>
       </c>
       <c r="H82" t="n">
         <v>2022</v>
       </c>
       <c r="I82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -4819,31 +4811,31 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B83" t="n">
-        <v>2018</v>
+        <v>1893</v>
       </c>
       <c r="C83" t="n">
-        <v>2067.550048828125</v>
+        <v>2103.949951171875</v>
       </c>
       <c r="D83" t="n">
-        <v>1802.650024414062</v>
+        <v>1870</v>
       </c>
       <c r="E83" t="n">
-        <v>1855.300048828125</v>
+        <v>2016.800048828125</v>
       </c>
       <c r="F83" t="n">
-        <v>1855.300048828125</v>
+        <v>2016.800048828125</v>
       </c>
       <c r="G83" t="n">
-        <v>37262297</v>
+        <v>13938648</v>
       </c>
       <c r="H83" t="n">
         <v>2022</v>
       </c>
       <c r="I83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -4858,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4872,31 +4864,31 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B84" t="n">
-        <v>1874</v>
+        <v>2018</v>
       </c>
       <c r="C84" t="n">
-        <v>1876</v>
+        <v>2067.550048828125</v>
       </c>
       <c r="D84" t="n">
-        <v>1722.949951171875</v>
+        <v>1802.650024414062</v>
       </c>
       <c r="E84" t="n">
-        <v>1781.699951171875</v>
+        <v>1855.300048828125</v>
       </c>
       <c r="F84" t="n">
-        <v>1781.699951171875</v>
+        <v>1855.300048828125</v>
       </c>
       <c r="G84" t="n">
-        <v>10584834</v>
+        <v>37262297</v>
       </c>
       <c r="H84" t="n">
         <v>2022</v>
       </c>
       <c r="I84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4911,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -4920,36 +4912,36 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B85" t="n">
-        <v>1777</v>
+        <v>1874</v>
       </c>
       <c r="C85" t="n">
-        <v>1968</v>
+        <v>1876</v>
       </c>
       <c r="D85" t="n">
-        <v>1676</v>
+        <v>1722.949951171875</v>
       </c>
       <c r="E85" t="n">
-        <v>1937.449951171875</v>
+        <v>1781.699951171875</v>
       </c>
       <c r="F85" t="n">
-        <v>1937.449951171875</v>
+        <v>1781.699951171875</v>
       </c>
       <c r="G85" t="n">
-        <v>16087393</v>
+        <v>10584834</v>
       </c>
       <c r="H85" t="n">
         <v>2022</v>
       </c>
       <c r="I85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4964,45 +4956,45 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B86" t="n">
-        <v>1955</v>
+        <v>1777</v>
       </c>
       <c r="C86" t="n">
-        <v>2100</v>
+        <v>1968</v>
       </c>
       <c r="D86" t="n">
-        <v>1893.900024414062</v>
+        <v>1676</v>
       </c>
       <c r="E86" t="n">
-        <v>2007.699951171875</v>
+        <v>1937.449951171875</v>
       </c>
       <c r="F86" t="n">
-        <v>2007.699951171875</v>
+        <v>1937.449951171875</v>
       </c>
       <c r="G86" t="n">
-        <v>16124475</v>
+        <v>16087393</v>
       </c>
       <c r="H86" t="n">
         <v>2022</v>
       </c>
       <c r="I86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5017,45 +5009,45 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B87" t="n">
-        <v>2013</v>
+        <v>1955</v>
       </c>
       <c r="C87" t="n">
-        <v>2165</v>
+        <v>2100</v>
       </c>
       <c r="D87" t="n">
-        <v>1990.400024414062</v>
+        <v>1893.900024414062</v>
       </c>
       <c r="E87" t="n">
-        <v>2124.25</v>
+        <v>2007.699951171875</v>
       </c>
       <c r="F87" t="n">
-        <v>2124.25</v>
+        <v>2007.699951171875</v>
       </c>
       <c r="G87" t="n">
-        <v>12751895</v>
+        <v>16124475</v>
       </c>
       <c r="H87" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -5070,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -5079,36 +5071,36 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B88" t="n">
-        <v>2120.25</v>
+        <v>2013</v>
       </c>
       <c r="C88" t="n">
-        <v>2180</v>
+        <v>2165</v>
       </c>
       <c r="D88" t="n">
-        <v>1816</v>
+        <v>1990.400024414062</v>
       </c>
       <c r="E88" t="n">
-        <v>1856.349975585938</v>
+        <v>2124.25</v>
       </c>
       <c r="F88" t="n">
-        <v>1856.349975585938</v>
+        <v>2124.25</v>
       </c>
       <c r="G88" t="n">
-        <v>22777875</v>
+        <v>12751895</v>
       </c>
       <c r="H88" t="n">
         <v>2023</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -5123,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -5137,31 +5129,31 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B89" t="n">
-        <v>1868.949951171875</v>
+        <v>2120.25</v>
       </c>
       <c r="C89" t="n">
-        <v>1919.949951171875</v>
+        <v>2180</v>
       </c>
       <c r="D89" t="n">
-        <v>1810.650024414062</v>
+        <v>1816</v>
       </c>
       <c r="E89" t="n">
-        <v>1910.650024414062</v>
+        <v>1856.349975585938</v>
       </c>
       <c r="F89" t="n">
-        <v>1910.650024414062</v>
+        <v>1856.349975585938</v>
       </c>
       <c r="G89" t="n">
-        <v>10175160</v>
+        <v>22777875</v>
       </c>
       <c r="H89" t="n">
         <v>2023</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -5176,45 +5168,45 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B90" t="n">
-        <v>1900</v>
+        <v>1868.949951171875</v>
       </c>
       <c r="C90" t="n">
-        <v>2037.449951171875</v>
+        <v>1919.949951171875</v>
       </c>
       <c r="D90" t="n">
-        <v>1861</v>
+        <v>1810.650024414062</v>
       </c>
       <c r="E90" t="n">
-        <v>2020.949951171875</v>
+        <v>1910.650024414062</v>
       </c>
       <c r="F90" t="n">
-        <v>2020.949951171875</v>
+        <v>1910.650024414062</v>
       </c>
       <c r="G90" t="n">
-        <v>6331911</v>
+        <v>10175160</v>
       </c>
       <c r="H90" t="n">
         <v>2023</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -5229,45 +5221,45 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B91" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2037.449951171875</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1861</v>
+      </c>
+      <c r="E91" t="n">
         <v>2020.949951171875</v>
       </c>
-      <c r="C91" t="n">
-        <v>2413.75</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="F91" t="n">
         <v>2020.949951171875</v>
       </c>
-      <c r="E91" t="n">
-        <v>2372.5</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2372.5</v>
-      </c>
       <c r="G91" t="n">
-        <v>22879714</v>
+        <v>6331911</v>
       </c>
       <c r="H91" t="n">
         <v>2023</v>
       </c>
       <c r="I91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5282,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -5296,31 +5288,31 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B92" t="n">
+        <v>2020.949951171875</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2413.75</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2020.949951171875</v>
+      </c>
+      <c r="E92" t="n">
         <v>2372.5</v>
       </c>
-      <c r="C92" t="n">
-        <v>2658.300048828125</v>
-      </c>
-      <c r="D92" t="n">
-        <v>2331.10009765625</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2626.89990234375</v>
-      </c>
       <c r="F92" t="n">
-        <v>2626.89990234375</v>
+        <v>2372.5</v>
       </c>
       <c r="G92" t="n">
-        <v>18467498</v>
+        <v>22879714</v>
       </c>
       <c r="H92" t="n">
         <v>2023</v>
       </c>
       <c r="I92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -5335,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -5349,31 +5341,31 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B93" t="n">
-        <v>2626</v>
+        <v>2372.5</v>
       </c>
       <c r="C93" t="n">
-        <v>2745.10009765625</v>
+        <v>2658.300048828125</v>
       </c>
       <c r="D93" t="n">
-        <v>2506.449951171875</v>
+        <v>2331.10009765625</v>
       </c>
       <c r="E93" t="n">
-        <v>2592.89990234375</v>
+        <v>2626.89990234375</v>
       </c>
       <c r="F93" t="n">
-        <v>2592.89990234375</v>
+        <v>2626.89990234375</v>
       </c>
       <c r="G93" t="n">
-        <v>12943898</v>
+        <v>18467498</v>
       </c>
       <c r="H93" t="n">
         <v>2023</v>
       </c>
       <c r="I93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -5388,45 +5380,45 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B94" t="n">
-        <v>2589</v>
+        <v>2626</v>
       </c>
       <c r="C94" t="n">
-        <v>2610</v>
+        <v>2745.10009765625</v>
       </c>
       <c r="D94" t="n">
-        <v>2405</v>
+        <v>2506.449951171875</v>
       </c>
       <c r="E94" t="n">
-        <v>2435</v>
+        <v>2592.89990234375</v>
       </c>
       <c r="F94" t="n">
-        <v>2435</v>
+        <v>2592.89990234375</v>
       </c>
       <c r="G94" t="n">
-        <v>33359118</v>
+        <v>12943898</v>
       </c>
       <c r="H94" t="n">
         <v>2023</v>
       </c>
       <c r="I94" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5441,45 +5433,45 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B95" t="n">
-        <v>2429.949951171875</v>
+        <v>2589</v>
       </c>
       <c r="C95" t="n">
-        <v>2515</v>
+        <v>2610</v>
       </c>
       <c r="D95" t="n">
-        <v>2333.35009765625</v>
+        <v>2405</v>
       </c>
       <c r="E95" t="n">
-        <v>2381.199951171875</v>
+        <v>2435</v>
       </c>
       <c r="F95" t="n">
-        <v>2381.199951171875</v>
+        <v>2435</v>
       </c>
       <c r="G95" t="n">
-        <v>17269292</v>
+        <v>33359118</v>
       </c>
       <c r="H95" t="n">
         <v>2023</v>
       </c>
       <c r="I95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5494,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -5508,31 +5500,31 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B96" t="n">
+        <v>2429.949951171875</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2515</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2333.35009765625</v>
+      </c>
+      <c r="E96" t="n">
         <v>2381.199951171875</v>
       </c>
-      <c r="C96" t="n">
-        <v>2629.75</v>
-      </c>
-      <c r="D96" t="n">
-        <v>2367.050048828125</v>
-      </c>
-      <c r="E96" t="n">
-        <v>2453.85009765625</v>
-      </c>
       <c r="F96" t="n">
-        <v>2453.85009765625</v>
+        <v>2381.199951171875</v>
       </c>
       <c r="G96" t="n">
-        <v>16364189</v>
+        <v>17269292</v>
       </c>
       <c r="H96" t="n">
         <v>2023</v>
       </c>
       <c r="I96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5547,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
@@ -5561,31 +5553,31 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B97" t="n">
-        <v>2463</v>
+        <v>2381.199951171875</v>
       </c>
       <c r="C97" t="n">
-        <v>2713.449951171875</v>
+        <v>2629.75</v>
       </c>
       <c r="D97" t="n">
-        <v>2414.75</v>
+        <v>2367.050048828125</v>
       </c>
       <c r="E97" t="n">
-        <v>2705.35009765625</v>
+        <v>2453.85009765625</v>
       </c>
       <c r="F97" t="n">
-        <v>2705.35009765625</v>
+        <v>2453.85009765625</v>
       </c>
       <c r="G97" t="n">
-        <v>12863814</v>
+        <v>16364189</v>
       </c>
       <c r="H97" t="n">
         <v>2023</v>
       </c>
       <c r="I97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5600,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -5609,36 +5601,36 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B98" t="n">
+        <v>2463</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2713.449951171875</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2414.75</v>
+      </c>
+      <c r="E98" t="n">
         <v>2705.35009765625</v>
       </c>
-      <c r="C98" t="n">
-        <v>3009</v>
-      </c>
-      <c r="D98" t="n">
+      <c r="F98" t="n">
         <v>2705.35009765625</v>
       </c>
-      <c r="E98" t="n">
-        <v>2967.10009765625</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2967.10009765625</v>
-      </c>
       <c r="G98" t="n">
-        <v>15957918</v>
+        <v>12863814</v>
       </c>
       <c r="H98" t="n">
         <v>2023</v>
       </c>
       <c r="I98" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -5653,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -5662,36 +5654,36 @@
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B99" t="n">
-        <v>3000</v>
+        <v>2705.35009765625</v>
       </c>
       <c r="C99" t="n">
-        <v>3132</v>
+        <v>3009</v>
       </c>
       <c r="D99" t="n">
-        <v>2847</v>
+        <v>2705.35009765625</v>
       </c>
       <c r="E99" t="n">
-        <v>2961.35009765625</v>
+        <v>2967.10009765625</v>
       </c>
       <c r="F99" t="n">
-        <v>2961.35009765625</v>
+        <v>2967.10009765625</v>
       </c>
       <c r="G99" t="n">
-        <v>17699651</v>
+        <v>15957918</v>
       </c>
       <c r="H99" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -5706,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -5720,31 +5712,31 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B100" t="n">
-        <v>2982</v>
+        <v>3000</v>
       </c>
       <c r="C100" t="n">
-        <v>3300</v>
+        <v>3132</v>
       </c>
       <c r="D100" t="n">
-        <v>2972.10009765625</v>
+        <v>2847</v>
       </c>
       <c r="E100" t="n">
-        <v>3155.35009765625</v>
+        <v>2961.35009765625</v>
       </c>
       <c r="F100" t="n">
-        <v>3155.35009765625</v>
+        <v>2961.35009765625</v>
       </c>
       <c r="G100" t="n">
-        <v>20189457</v>
+        <v>17699651</v>
       </c>
       <c r="H100" t="n">
         <v>2024</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -5759,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -5773,31 +5765,31 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B101" t="n">
-        <v>3155.39990234375</v>
+        <v>2982</v>
       </c>
       <c r="C101" t="n">
-        <v>3573.800048828125</v>
+        <v>3300</v>
       </c>
       <c r="D101" t="n">
-        <v>3020</v>
+        <v>2972.10009765625</v>
       </c>
       <c r="E101" t="n">
-        <v>3548.64990234375</v>
+        <v>3155.35009765625</v>
       </c>
       <c r="F101" t="n">
-        <v>3548.64990234375</v>
+        <v>3155.35009765625</v>
       </c>
       <c r="G101" t="n">
-        <v>32283137</v>
+        <v>20189457</v>
       </c>
       <c r="H101" t="n">
         <v>2024</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -5812,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -5826,31 +5818,31 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B102" t="n">
-        <v>3569.949951171875</v>
+        <v>3155.39990234375</v>
       </c>
       <c r="C102" t="n">
-        <v>4009.949951171875</v>
+        <v>3573.800048828125</v>
       </c>
       <c r="D102" t="n">
-        <v>3441.050048828125</v>
+        <v>3020</v>
       </c>
       <c r="E102" t="n">
-        <v>3982.300048828125</v>
+        <v>3548.64990234375</v>
       </c>
       <c r="F102" t="n">
-        <v>3982.300048828125</v>
+        <v>3548.64990234375</v>
       </c>
       <c r="G102" t="n">
-        <v>22121512</v>
+        <v>32283137</v>
       </c>
       <c r="H102" t="n">
         <v>2024</v>
       </c>
       <c r="I102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -5865,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -5879,31 +5871,31 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B103" t="n">
+        <v>3569.949951171875</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4009.949951171875</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3441.050048828125</v>
+      </c>
+      <c r="E103" t="n">
         <v>3982.300048828125</v>
       </c>
-      <c r="C103" t="n">
-        <v>4529</v>
-      </c>
-      <c r="D103" t="n">
-        <v>3915.550048828125</v>
-      </c>
-      <c r="E103" t="n">
-        <v>4189.0498046875</v>
-      </c>
       <c r="F103" t="n">
-        <v>4189.0498046875</v>
+        <v>3982.300048828125</v>
       </c>
       <c r="G103" t="n">
-        <v>24176617</v>
+        <v>22121512</v>
       </c>
       <c r="H103" t="n">
         <v>2024</v>
       </c>
       <c r="I103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -5918,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -5932,56 +5924,514 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B104" t="n">
-        <v>4324</v>
+        <v>3982.300048828125</v>
       </c>
       <c r="C104" t="n">
-        <v>4411</v>
+        <v>4529</v>
       </c>
       <c r="D104" t="n">
-        <v>3868.25</v>
+        <v>3915.550048828125</v>
       </c>
       <c r="E104" t="n">
-        <v>4373.2001953125</v>
+        <v>4189.0498046875</v>
       </c>
       <c r="F104" t="n">
-        <v>4373.2001953125</v>
+        <v>4189.0498046875</v>
       </c>
       <c r="G104" t="n">
-        <v>7635716</v>
+        <v>24176617</v>
       </c>
       <c r="H104" t="n">
         <v>2024</v>
       </c>
       <c r="I104" t="n">
+        <v>5</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>18</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4324</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4411</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3868.25</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4373.2001953125</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4373.2001953125</v>
+      </c>
+      <c r="G105" t="n">
+        <v>7635716</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I105" t="n">
         <v>6</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" t="n">
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
         <v>22</v>
       </c>
-      <c r="O104" t="n">
-        <v>0</v>
-      </c>
-      <c r="P104" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>0</v>
-      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4276.35009765625</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4527.85009765625</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4165.39990234375</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4472.2001953125</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>19523248</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I106" t="n">
+        <v>7</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>27</v>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4432</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4943.7998046875</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4162.9501953125</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4830</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>30238226</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I107" t="n">
+        <v>8</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>31</v>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4894.7001953125</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5035</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4718.39990234375</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4787.4501953125</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>21598696</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I108" t="n">
+        <v>9</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>35</v>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4824</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3780</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4052.5</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>29780727</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>40</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4050</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4400</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3830</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4378.89990234375</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>15180737</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I110" t="n">
+        <v>11</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>44</v>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4382.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4740</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4193.35009765625</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4554.25</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>14813011</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I111" t="n">
+        <v>12</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>48</v>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4581.60009765625</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4635</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3945</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4324.35009765625</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>19605051</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4340</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4574</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4157.85009765625</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4477.2998046875</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>15774897</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>5</v>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4478.9501953125</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5190.35009765625</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4267.5498046875</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5115.35009765625</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>18300099</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>9</v>
+      </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
